--- a/Code/Results/Cases/Case_3_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.82353697183348</v>
+        <v>9.881153648301549</v>
       </c>
       <c r="C2">
-        <v>12.04226129240965</v>
+        <v>7.915017854788083</v>
       </c>
       <c r="D2">
-        <v>3.871924860709614</v>
+        <v>3.733362436769495</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.61481876084121</v>
+        <v>19.9866209883833</v>
       </c>
       <c r="G2">
-        <v>2.051706417653566</v>
+        <v>3.5936690653342</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.91195051178324</v>
+        <v>17.0461601231509</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.04495154572777</v>
+        <v>19.96700386071196</v>
       </c>
       <c r="N2">
-        <v>10.58265760542843</v>
+        <v>16.26924410296094</v>
       </c>
       <c r="O2">
-        <v>13.29653131807249</v>
+        <v>17.6917833093795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.79896320037375</v>
+        <v>9.373212588027036</v>
       </c>
       <c r="C3">
-        <v>11.39337095293415</v>
+        <v>7.584907697067863</v>
       </c>
       <c r="D3">
-        <v>3.71981334437954</v>
+        <v>3.675316739641407</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.88376028015194</v>
+        <v>19.90738053844318</v>
       </c>
       <c r="G3">
-        <v>2.056719599543172</v>
+        <v>3.595554913489552</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.94641430670494</v>
+        <v>17.11957829895055</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.75016484421272</v>
+        <v>19.35892791304355</v>
       </c>
       <c r="N3">
-        <v>10.805489348398</v>
+        <v>16.33121745991418</v>
       </c>
       <c r="O3">
-        <v>12.95472599946306</v>
+        <v>17.69843233823755</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.13323906550584</v>
+        <v>9.047258988756798</v>
       </c>
       <c r="C4">
-        <v>10.97393427691742</v>
+        <v>7.373159530333133</v>
       </c>
       <c r="D4">
-        <v>3.622483308896586</v>
+        <v>3.638715676524649</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4371316604193</v>
+        <v>19.86523609738898</v>
       </c>
       <c r="G4">
-        <v>2.059886288427109</v>
+        <v>3.596774418860985</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.98056574087476</v>
+        <v>17.168856490374</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.28952560228183</v>
+        <v>18.98378708692832</v>
       </c>
       <c r="N4">
-        <v>10.94415057201914</v>
+        <v>16.37105263929876</v>
       </c>
       <c r="O4">
-        <v>12.75485822384592</v>
+        <v>17.7075900206965</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.85278711273989</v>
+        <v>8.911034962097082</v>
       </c>
       <c r="C5">
-        <v>10.79782274657042</v>
+        <v>7.284668387007853</v>
       </c>
       <c r="D5">
-        <v>3.581869761498835</v>
+        <v>3.623568412166338</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.25594884913959</v>
+        <v>19.84971250780678</v>
       </c>
       <c r="G5">
-        <v>2.061199844161458</v>
+        <v>3.597286914739892</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.99757095090145</v>
+        <v>17.18999015601645</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.68052884113072</v>
+        <v>18.83072535755881</v>
       </c>
       <c r="N5">
-        <v>11.00118543628527</v>
+        <v>16.38773595312628</v>
       </c>
       <c r="O5">
-        <v>12.6759620207705</v>
+        <v>17.71259592566362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.80566646803615</v>
+        <v>8.888214722258935</v>
       </c>
       <c r="C6">
-        <v>10.76826941482072</v>
+        <v>7.269843938531759</v>
       </c>
       <c r="D6">
-        <v>3.575069685955144</v>
+        <v>3.62103949229448</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.225921250691</v>
+        <v>19.84723487211057</v>
       </c>
       <c r="G6">
-        <v>2.061419377550421</v>
+        <v>3.597372954218551</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.00057605013097</v>
+        <v>17.19356284477089</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.57855217483286</v>
+        <v>18.80530598917477</v>
       </c>
       <c r="N6">
-        <v>11.01068978648062</v>
+        <v>16.39053344379492</v>
       </c>
       <c r="O6">
-        <v>12.66301641484298</v>
+        <v>17.71350402550485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.12949382417719</v>
+        <v>9.045435361882323</v>
       </c>
       <c r="C7">
-        <v>10.97158003934754</v>
+        <v>7.371974915434203</v>
       </c>
       <c r="D7">
-        <v>3.621939376563455</v>
+        <v>3.638512321850156</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.43468447810957</v>
+        <v>19.86502004134503</v>
       </c>
       <c r="G7">
-        <v>2.059903908900549</v>
+        <v>3.596781267581049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.98078280720888</v>
+        <v>17.16913724993816</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.28136920571757</v>
+        <v>18.98172325587807</v>
       </c>
       <c r="N7">
-        <v>10.94491753929202</v>
+        <v>16.37127581140619</v>
       </c>
       <c r="O7">
-        <v>12.75378382723586</v>
+        <v>17.70765237684732</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.47789114811117</v>
+        <v>9.709015808404226</v>
       </c>
       <c r="C8">
-        <v>11.82293867303635</v>
+        <v>7.803118363362241</v>
       </c>
       <c r="D8">
-        <v>3.820314809238546</v>
+        <v>3.713553311639583</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.36243002549521</v>
+        <v>19.95795684552901</v>
       </c>
       <c r="G8">
-        <v>2.053417102810367</v>
+        <v>3.594306554157835</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.9210287569276</v>
+        <v>17.07060108080558</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.26391520242376</v>
+        <v>19.75785961051755</v>
       </c>
       <c r="N8">
-        <v>10.65915029606342</v>
+        <v>16.29024344126664</v>
       </c>
       <c r="O8">
-        <v>13.17662422545438</v>
+        <v>17.69302151879839</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.82995393880458</v>
+        <v>10.89346847218646</v>
       </c>
       <c r="C9">
-        <v>13.32218628204429</v>
+        <v>8.57389669656397</v>
       </c>
       <c r="D9">
-        <v>4.176624534668011</v>
+        <v>3.852684650337248</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.18980332129093</v>
+        <v>20.19113234598985</v>
       </c>
       <c r="G9">
-        <v>2.041357310998737</v>
+        <v>3.589939985651769</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.91512711855485</v>
+        <v>16.91084597122427</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.74532540637257</v>
+        <v>21.25511578786506</v>
       </c>
       <c r="N9">
-        <v>10.10985472810501</v>
+        <v>16.14540915751734</v>
       </c>
       <c r="O9">
-        <v>14.08346575886443</v>
+        <v>17.70465840762173</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.37840978376205</v>
+        <v>11.74066449909678</v>
       </c>
       <c r="C10">
-        <v>14.31583064536665</v>
+        <v>9.091534370923538</v>
       </c>
       <c r="D10">
-        <v>4.416644218806694</v>
+        <v>3.949505157808151</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.52691421866645</v>
+        <v>20.3923572729509</v>
       </c>
       <c r="G10">
-        <v>2.032832665478524</v>
+        <v>3.587025090936742</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.99017851660806</v>
+        <v>16.81409228994817</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.62153433067829</v>
+        <v>22.32700807729825</v>
       </c>
       <c r="N10">
-        <v>9.707032610862022</v>
+        <v>16.04746446709638</v>
       </c>
       <c r="O10">
-        <v>14.79503355223235</v>
+        <v>17.73782123256647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.04354565880092</v>
+        <v>12.11539766440761</v>
       </c>
       <c r="C11">
-        <v>14.74365954810403</v>
+        <v>9.315956523545706</v>
       </c>
       <c r="D11">
-        <v>4.520752299991083</v>
+        <v>3.992279503861704</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.13266901655393</v>
+        <v>20.4901046883656</v>
       </c>
       <c r="G11">
-        <v>2.029009324373677</v>
+        <v>3.585762005210024</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.04414129692999</v>
+        <v>16.77459850789732</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.37411761633965</v>
+        <v>22.80612216390144</v>
       </c>
       <c r="N11">
-        <v>9.522151830135341</v>
+        <v>16.00472094959486</v>
       </c>
       <c r="O11">
-        <v>15.12833800069661</v>
+        <v>17.75823992887898</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.28973418032022</v>
+        <v>12.25403268317952</v>
       </c>
       <c r="C12">
-        <v>14.90211749916528</v>
+        <v>9.399316671965243</v>
       </c>
       <c r="D12">
-        <v>4.559414664871132</v>
+        <v>4.008286649080699</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.36164333341101</v>
+        <v>20.52798441987555</v>
       </c>
       <c r="G12">
-        <v>2.027567515567633</v>
+        <v>3.585292701560291</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.06764755450358</v>
+        <v>16.76029688531065</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.03871009355642</v>
+        <v>22.98615255808928</v>
       </c>
       <c r="N12">
-        <v>9.451708002144779</v>
+        <v>15.98879383049911</v>
       </c>
       <c r="O12">
-        <v>15.25593473638468</v>
+        <v>17.76673617984455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.23696662525982</v>
+        <v>12.22432050035114</v>
       </c>
       <c r="C13">
-        <v>14.86815000961876</v>
+        <v>9.381436268597982</v>
       </c>
       <c r="D13">
-        <v>4.551122401316161</v>
+        <v>4.00484782202207</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.31234817964169</v>
+        <v>20.5197883400636</v>
       </c>
       <c r="G13">
-        <v>2.027877801136753</v>
+        <v>3.585393374996717</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.0624448132214</v>
+        <v>16.76334785614922</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.89548991035747</v>
+        <v>22.94744469030635</v>
       </c>
       <c r="N13">
-        <v>9.466902385791954</v>
+        <v>15.99221253094522</v>
       </c>
       <c r="O13">
-        <v>15.22839277888377</v>
+        <v>17.7648724281912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.06391391730661</v>
+        <v>12.12686874973778</v>
       </c>
       <c r="C14">
-        <v>14.75676762366229</v>
+        <v>9.32284732897576</v>
       </c>
       <c r="D14">
-        <v>4.523948515043086</v>
+        <v>3.993600284803717</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.15151523003228</v>
+        <v>20.49320390948448</v>
       </c>
       <c r="G14">
-        <v>2.028890597393309</v>
+        <v>3.585723215224601</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.04601230572821</v>
+        <v>16.77340877946681</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.42875877086762</v>
+        <v>22.82096238177948</v>
       </c>
       <c r="N14">
-        <v>9.516366397121152</v>
+        <v>16.00340543609898</v>
       </c>
       <c r="O14">
-        <v>15.13880768281628</v>
+        <v>17.75892362502162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.95717256506213</v>
+        <v>12.06675112002042</v>
       </c>
       <c r="C15">
-        <v>14.68807778683096</v>
+        <v>9.286747548226531</v>
       </c>
       <c r="D15">
-        <v>4.507203651347326</v>
+        <v>3.986685796193104</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.05294614717005</v>
+        <v>20.4770319524987</v>
       </c>
       <c r="G15">
-        <v>2.029511685680135</v>
+        <v>3.585926422483023</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.03635368549975</v>
+        <v>16.77965664511138</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.14307849292121</v>
+        <v>22.74330105106771</v>
       </c>
       <c r="N15">
-        <v>9.546601253123672</v>
+        <v>16.01029508452039</v>
       </c>
       <c r="O15">
-        <v>15.08411456831543</v>
+        <v>17.75537922772255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.33414853164171</v>
+        <v>11.7157174587403</v>
       </c>
       <c r="C16">
-        <v>14.28737828892218</v>
+        <v>9.076642376169914</v>
       </c>
       <c r="D16">
-        <v>4.409735731704311</v>
+        <v>3.946683510411024</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.48727069855432</v>
+        <v>20.38609184693555</v>
       </c>
       <c r="G16">
-        <v>2.033083478815276</v>
+        <v>3.587108898490629</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.98706950063534</v>
+        <v>16.8167645847839</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.50697897680178</v>
+        <v>22.2955102647263</v>
       </c>
       <c r="N16">
-        <v>9.719066337318392</v>
+        <v>16.05029417831474</v>
       </c>
       <c r="O16">
-        <v>14.773444118268</v>
+        <v>17.73659392110826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.94186353998388</v>
+        <v>11.49454887971348</v>
       </c>
       <c r="C17">
-        <v>14.03531831209502</v>
+        <v>8.9448923818547</v>
       </c>
       <c r="D17">
-        <v>4.348620275240471</v>
+        <v>3.921812366087783</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.13955248718804</v>
+        <v>20.33187407170877</v>
       </c>
       <c r="G17">
-        <v>2.035287434814401</v>
+        <v>3.587850389229877</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.9620667926272</v>
+        <v>16.84068952678109</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.50209293538745</v>
+        <v>22.01849686595246</v>
       </c>
       <c r="N17">
-        <v>9.824324013689145</v>
+        <v>16.07529525639644</v>
       </c>
       <c r="O17">
-        <v>14.58531151530289</v>
+        <v>17.7264339594954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.71253856601646</v>
+        <v>11.36520001338535</v>
       </c>
       <c r="C18">
-        <v>13.88806844991072</v>
+        <v>8.868074478522313</v>
       </c>
       <c r="D18">
-        <v>4.312992200623544</v>
+        <v>3.907388072584453</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.93931853482615</v>
+        <v>20.3012756805662</v>
       </c>
       <c r="G18">
-        <v>2.036560355967409</v>
+        <v>3.588282799727558</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.94953790657167</v>
+        <v>16.85487573242782</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.92291910298752</v>
+        <v>21.85837598137297</v>
       </c>
       <c r="N18">
-        <v>9.884725995450387</v>
+        <v>16.08984586832333</v>
       </c>
       <c r="O18">
-        <v>14.47800584270084</v>
+        <v>17.72109238469666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.63425975531057</v>
+        <v>11.32103750279486</v>
       </c>
       <c r="C19">
-        <v>13.83782410994561</v>
+        <v>8.841887977456309</v>
       </c>
       <c r="D19">
-        <v>4.300848291177894</v>
+        <v>3.902484054636637</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.87148472382729</v>
+        <v>20.29101709893548</v>
       </c>
       <c r="G19">
-        <v>2.03699229957832</v>
+        <v>3.588430225506125</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.94560732275402</v>
+        <v>16.85975185029057</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.72655173575438</v>
+        <v>21.80403182242192</v>
       </c>
       <c r="N19">
-        <v>9.90515833621448</v>
+        <v>16.09480181543385</v>
       </c>
       <c r="O19">
-        <v>14.44182949923506</v>
+        <v>17.71937013406432</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.98400539582181</v>
+        <v>11.51831400339111</v>
       </c>
       <c r="C20">
-        <v>14.0623861326823</v>
+        <v>8.959025169888786</v>
       </c>
       <c r="D20">
-        <v>4.355175609772957</v>
+        <v>3.924472324230871</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.17659261549714</v>
+        <v>20.3375851694929</v>
       </c>
       <c r="G20">
-        <v>2.035052287304434</v>
+        <v>3.587770843443018</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.96453512273018</v>
+        <v>16.83809864002426</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.60917216703326</v>
+        <v>22.04806853531593</v>
       </c>
       <c r="N20">
-        <v>9.813134857316113</v>
+        <v>16.07261619893245</v>
       </c>
       <c r="O20">
-        <v>14.60524514909407</v>
+        <v>17.72746354912363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.11489832322361</v>
+        <v>12.15558138806182</v>
       </c>
       <c r="C21">
-        <v>14.78958036716623</v>
+        <v>9.340100630236739</v>
       </c>
       <c r="D21">
-        <v>4.531951058220614</v>
+        <v>3.996909192583086</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.19876708827692</v>
+        <v>20.50098915997626</v>
       </c>
       <c r="G21">
-        <v>2.028592968097614</v>
+        <v>3.585626089287357</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.05075375246357</v>
+        <v>16.77043586757052</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.56580063194502</v>
+        <v>22.85815262043285</v>
       </c>
       <c r="N21">
-        <v>9.501851241314963</v>
+        <v>16.00011079448101</v>
       </c>
       <c r="O21">
-        <v>15.16508337704049</v>
+        <v>17.76065022056259</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.82084235787097</v>
+        <v>12.5530236399366</v>
       </c>
       <c r="C22">
-        <v>15.24409760996774</v>
+        <v>9.579679587763158</v>
       </c>
       <c r="D22">
-        <v>4.643031169971752</v>
+        <v>4.043136686656112</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.86443275994597</v>
+        <v>20.61281020212141</v>
       </c>
       <c r="G22">
-        <v>2.024405288570434</v>
+        <v>3.584276802585919</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.12511770193848</v>
+        <v>16.73002702485237</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.50525139108935</v>
+        <v>23.37936069021312</v>
       </c>
       <c r="N22">
-        <v>9.295745784999932</v>
+        <v>15.95423276690081</v>
       </c>
       <c r="O22">
-        <v>15.539042793447</v>
+        <v>17.78679167111735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.44711735050532</v>
+        <v>12.3426439138011</v>
       </c>
       <c r="C23">
-        <v>15.00343950552642</v>
+        <v>9.452688686117439</v>
       </c>
       <c r="D23">
-        <v>4.584164006171884</v>
+        <v>4.018568673545129</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.50937525962249</v>
+        <v>20.55267894097267</v>
       </c>
       <c r="G23">
-        <v>2.026637948329457</v>
+        <v>3.584992160197952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.08370393173086</v>
+        <v>16.75124386281492</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.46846160888401</v>
+        <v>23.10198931170088</v>
       </c>
       <c r="N23">
-        <v>9.406073138519901</v>
+        <v>15.97858125161748</v>
       </c>
       <c r="O23">
-        <v>15.33870797532811</v>
+        <v>17.77243326082542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.96496488107192</v>
+        <v>11.50757663121828</v>
       </c>
       <c r="C24">
-        <v>14.05015604554997</v>
+        <v>8.952639076164932</v>
       </c>
       <c r="D24">
-        <v>4.352213473159437</v>
+        <v>3.923270147577709</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.15984778462403</v>
+        <v>20.33500139802924</v>
       </c>
       <c r="G24">
-        <v>2.035158579177827</v>
+        <v>3.587806787035164</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.96341345897841</v>
+        <v>16.83926863638688</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.56076634364469</v>
+        <v>22.03470185542003</v>
       </c>
       <c r="N24">
-        <v>9.818193809767317</v>
+        <v>16.0738268488766</v>
       </c>
       <c r="O24">
-        <v>14.59623049201279</v>
+        <v>17.72699651555741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.22510511536384</v>
+        <v>10.58618447983003</v>
       </c>
       <c r="C25">
-        <v>12.93527293843774</v>
+        <v>8.373731384842529</v>
       </c>
       <c r="D25">
-        <v>4.083931212387036</v>
+        <v>3.815958925561931</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.69580440689641</v>
+        <v>20.12270804555521</v>
       </c>
       <c r="G25">
-        <v>2.044555446542899</v>
+        <v>3.591069530541306</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.90363601040986</v>
+        <v>16.9504583635917</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.29515189014205</v>
+        <v>20.85413298547299</v>
       </c>
       <c r="N25">
-        <v>10.25781670830376</v>
+        <v>16.18309602920111</v>
       </c>
       <c r="O25">
-        <v>13.83005673165235</v>
+        <v>17.69718648789772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.881153648301549</v>
+        <v>16.82353697183348</v>
       </c>
       <c r="C2">
-        <v>7.915017854788083</v>
+        <v>12.04226129240964</v>
       </c>
       <c r="D2">
-        <v>3.733362436769495</v>
+        <v>3.871924860709692</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.9866209883833</v>
+        <v>17.61481876084116</v>
       </c>
       <c r="G2">
-        <v>3.5936690653342</v>
+        <v>2.051706417653431</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.0461601231509</v>
+        <v>10.91195051178318</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96700386071196</v>
+        <v>30.04495154572775</v>
       </c>
       <c r="N2">
-        <v>16.26924410296094</v>
+        <v>10.58265760542839</v>
       </c>
       <c r="O2">
-        <v>17.6917833093795</v>
+        <v>13.29653131807246</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.373212588027036</v>
+        <v>15.79896320037378</v>
       </c>
       <c r="C3">
-        <v>7.584907697067863</v>
+        <v>11.39337095293412</v>
       </c>
       <c r="D3">
-        <v>3.675316739641407</v>
+        <v>3.7198133443796</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.90738053844318</v>
+        <v>16.88376028015194</v>
       </c>
       <c r="G3">
-        <v>3.595554913489552</v>
+        <v>2.05671959954317</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.11957829895055</v>
+        <v>10.94641430670496</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35892791304355</v>
+        <v>27.75016484421273</v>
       </c>
       <c r="N3">
-        <v>16.33121745991418</v>
+        <v>10.805489348398</v>
       </c>
       <c r="O3">
-        <v>17.69843233823755</v>
+        <v>12.95472599946308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.047258988756798</v>
+        <v>15.13323906550575</v>
       </c>
       <c r="C4">
-        <v>7.373159530333133</v>
+        <v>10.97393427691743</v>
       </c>
       <c r="D4">
-        <v>3.638715676524649</v>
+        <v>3.622483308896629</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.86523609738898</v>
+        <v>16.43713166041939</v>
       </c>
       <c r="G4">
-        <v>3.596774418860985</v>
+        <v>2.059886288426975</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.168856490374</v>
+        <v>10.98056574087488</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98378708692832</v>
+        <v>26.28952560228175</v>
       </c>
       <c r="N4">
-        <v>16.37105263929876</v>
+        <v>10.94415057201918</v>
       </c>
       <c r="O4">
-        <v>17.7075900206965</v>
+        <v>12.75485822384599</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.911034962097082</v>
+        <v>14.8527871127399</v>
       </c>
       <c r="C5">
-        <v>7.284668387007853</v>
+        <v>10.79782274657041</v>
       </c>
       <c r="D5">
-        <v>3.623568412166338</v>
+        <v>3.581869761498876</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.84971250780678</v>
+        <v>16.25594884913953</v>
       </c>
       <c r="G5">
-        <v>3.597286914739892</v>
+        <v>2.061199844161057</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.18999015601645</v>
+        <v>10.99757095090143</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83072535755881</v>
+        <v>25.68052884113073</v>
       </c>
       <c r="N5">
-        <v>16.38773595312628</v>
+        <v>11.00118543628523</v>
       </c>
       <c r="O5">
-        <v>17.71259592566362</v>
+        <v>12.67596202077047</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.888214722258935</v>
+        <v>14.80566646803616</v>
       </c>
       <c r="C6">
-        <v>7.269843938531759</v>
+        <v>10.76826941482041</v>
       </c>
       <c r="D6">
-        <v>3.62103949229448</v>
+        <v>3.57506968595529</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.84723487211057</v>
+        <v>16.22592125069104</v>
       </c>
       <c r="G6">
-        <v>3.597372954218551</v>
+        <v>2.061419377550286</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.19356284477089</v>
+        <v>11.00057605013098</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80530598917477</v>
+        <v>25.57855217483291</v>
       </c>
       <c r="N6">
-        <v>16.39053344379492</v>
+        <v>11.01068978648062</v>
       </c>
       <c r="O6">
-        <v>17.71350402550485</v>
+        <v>12.66301641484306</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.045435361882323</v>
+        <v>15.1294938241772</v>
       </c>
       <c r="C7">
-        <v>7.371974915434203</v>
+        <v>10.97158003934744</v>
       </c>
       <c r="D7">
-        <v>3.638512321850156</v>
+        <v>3.621939376563563</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.86502004134503</v>
+        <v>16.43468447810959</v>
       </c>
       <c r="G7">
-        <v>3.596781267581049</v>
+        <v>2.059903908900416</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.16913724993816</v>
+        <v>10.98078280720894</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98172325587807</v>
+        <v>26.28136920571751</v>
       </c>
       <c r="N7">
-        <v>16.37127581140619</v>
+        <v>10.94491753929205</v>
       </c>
       <c r="O7">
-        <v>17.70765237684732</v>
+        <v>12.7537838272359</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.709015808404226</v>
+        <v>16.47789114811117</v>
       </c>
       <c r="C8">
-        <v>7.803118363362241</v>
+        <v>11.82293867303635</v>
       </c>
       <c r="D8">
-        <v>3.713553311639583</v>
+        <v>3.820314809238545</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.95795684552901</v>
+        <v>17.36243002549524</v>
       </c>
       <c r="G8">
-        <v>3.594306554157835</v>
+        <v>2.053417102810367</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.07060108080558</v>
+        <v>10.92102875692761</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75785961051755</v>
+        <v>29.26391520242375</v>
       </c>
       <c r="N8">
-        <v>16.29024344126664</v>
+        <v>10.65915029606342</v>
       </c>
       <c r="O8">
-        <v>17.69302151879839</v>
+        <v>13.17662422545441</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.89346847218646</v>
+        <v>18.82995393880463</v>
       </c>
       <c r="C9">
-        <v>8.57389669656397</v>
+        <v>13.32218628204417</v>
       </c>
       <c r="D9">
-        <v>3.852684650337248</v>
+        <v>4.176624534667858</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.19113234598985</v>
+        <v>19.18980332129095</v>
       </c>
       <c r="G9">
-        <v>3.589939985651769</v>
+        <v>2.041357310998736</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.91084597122427</v>
+        <v>10.91512711855477</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25511578786506</v>
+        <v>34.74532540637255</v>
       </c>
       <c r="N9">
-        <v>16.14540915751734</v>
+        <v>10.10985472810491</v>
       </c>
       <c r="O9">
-        <v>17.70465840762173</v>
+        <v>14.0834657588644</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.74066449909678</v>
+        <v>20.37840978376205</v>
       </c>
       <c r="C10">
-        <v>9.091534370923538</v>
+        <v>14.31583064536656</v>
       </c>
       <c r="D10">
-        <v>3.949505157808151</v>
+        <v>4.416644218806777</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.3923572729509</v>
+        <v>20.52691421866653</v>
       </c>
       <c r="G10">
-        <v>3.587025090936742</v>
+        <v>2.032832665478388</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.81409228994817</v>
+        <v>10.99017851660814</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32700807729825</v>
+        <v>38.62153433067824</v>
       </c>
       <c r="N10">
-        <v>16.04746446709638</v>
+        <v>9.707032610862013</v>
       </c>
       <c r="O10">
-        <v>17.73782123256647</v>
+        <v>14.79503355223244</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.11539766440761</v>
+        <v>21.04354565880094</v>
       </c>
       <c r="C11">
-        <v>9.315956523545706</v>
+        <v>14.74365954810402</v>
       </c>
       <c r="D11">
-        <v>3.992279503861704</v>
+        <v>4.520752299991231</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.4901046883656</v>
+        <v>21.13266901655398</v>
       </c>
       <c r="G11">
-        <v>3.585762005210024</v>
+        <v>2.029009324373542</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.77459850789732</v>
+        <v>11.04414129693002</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80612216390144</v>
+        <v>40.37411761633958</v>
       </c>
       <c r="N11">
-        <v>16.00472094959486</v>
+        <v>9.522151830135336</v>
       </c>
       <c r="O11">
-        <v>17.75823992887898</v>
+        <v>15.12833800069665</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.25403268317952</v>
+        <v>21.28973418032026</v>
       </c>
       <c r="C12">
-        <v>9.399316671965243</v>
+        <v>14.90211749916539</v>
       </c>
       <c r="D12">
-        <v>4.008286649080699</v>
+        <v>4.559414664871251</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.52798441987555</v>
+        <v>21.36164333341101</v>
       </c>
       <c r="G12">
-        <v>3.585292701560291</v>
+        <v>2.027567515567901</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.76029688531065</v>
+        <v>11.06764755450354</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.98615255808928</v>
+        <v>41.03871009355648</v>
       </c>
       <c r="N12">
-        <v>15.98879383049911</v>
+        <v>9.451708002144708</v>
       </c>
       <c r="O12">
-        <v>17.76673617984455</v>
+        <v>15.25593473638465</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.22432050035114</v>
+        <v>21.23696662525981</v>
       </c>
       <c r="C13">
-        <v>9.381436268597982</v>
+        <v>14.86815000961876</v>
       </c>
       <c r="D13">
-        <v>4.00484782202207</v>
+        <v>4.551122401316188</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.5197883400636</v>
+        <v>21.31234817964172</v>
       </c>
       <c r="G13">
-        <v>3.585393374996717</v>
+        <v>2.027877801136753</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.76334785614922</v>
+        <v>11.06244481322145</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94744469030635</v>
+        <v>40.89548991035747</v>
       </c>
       <c r="N13">
-        <v>15.99221253094522</v>
+        <v>9.466902385791922</v>
       </c>
       <c r="O13">
-        <v>17.7648724281912</v>
+        <v>15.2283927788838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.12686874973778</v>
+        <v>21.06391391730662</v>
       </c>
       <c r="C14">
-        <v>9.32284732897576</v>
+        <v>14.75676762366216</v>
       </c>
       <c r="D14">
-        <v>3.993600284803717</v>
+        <v>4.523948515043132</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.49320390948448</v>
+        <v>21.15151523003234</v>
       </c>
       <c r="G14">
-        <v>3.585723215224601</v>
+        <v>2.028890597393175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.77340877946681</v>
+        <v>11.04601230572828</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.82096238177948</v>
+        <v>40.42875877086755</v>
       </c>
       <c r="N14">
-        <v>16.00340543609898</v>
+        <v>9.516366397121182</v>
       </c>
       <c r="O14">
-        <v>17.75892362502162</v>
+        <v>15.13880768281633</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.06675112002042</v>
+        <v>20.95717256506206</v>
       </c>
       <c r="C15">
-        <v>9.286747548226531</v>
+        <v>14.68807778683095</v>
       </c>
       <c r="D15">
-        <v>3.986685796193104</v>
+        <v>4.507203651347233</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.4770319524987</v>
+        <v>21.05294614717006</v>
       </c>
       <c r="G15">
-        <v>3.585926422483023</v>
+        <v>2.029511685680269</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.77965664511138</v>
+        <v>11.03635368549983</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74330105106771</v>
+        <v>40.14307849292116</v>
       </c>
       <c r="N15">
-        <v>16.01029508452039</v>
+        <v>9.546601253123669</v>
       </c>
       <c r="O15">
-        <v>17.75537922772255</v>
+        <v>15.08411456831547</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.7157174587403</v>
+        <v>20.33414853164167</v>
       </c>
       <c r="C16">
-        <v>9.076642376169914</v>
+        <v>14.28737828892215</v>
       </c>
       <c r="D16">
-        <v>3.946683510411024</v>
+        <v>4.409735731704325</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.38609184693555</v>
+        <v>20.48727069855438</v>
       </c>
       <c r="G16">
-        <v>3.587108898490629</v>
+        <v>2.033083478815008</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.8167645847839</v>
+        <v>10.98706950063543</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2955102647263</v>
+        <v>38.50697897680183</v>
       </c>
       <c r="N16">
-        <v>16.05029417831474</v>
+        <v>9.719066337318456</v>
       </c>
       <c r="O16">
-        <v>17.73659392110826</v>
+        <v>14.77344411826805</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.49454887971348</v>
+        <v>19.94186353998382</v>
       </c>
       <c r="C17">
-        <v>8.9448923818547</v>
+        <v>14.03531831209489</v>
       </c>
       <c r="D17">
-        <v>3.921812366087783</v>
+        <v>4.34862027524054</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.33187407170877</v>
+        <v>20.13955248718808</v>
       </c>
       <c r="G17">
-        <v>3.587850389229877</v>
+        <v>2.035287434814534</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.84068952678109</v>
+        <v>10.96206679262735</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01849686595246</v>
+        <v>37.50209293538748</v>
       </c>
       <c r="N17">
-        <v>16.07529525639644</v>
+        <v>9.82432401368928</v>
       </c>
       <c r="O17">
-        <v>17.7264339594954</v>
+        <v>14.58531151530299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.36520001338535</v>
+        <v>19.71253856601638</v>
       </c>
       <c r="C18">
-        <v>8.868074478522313</v>
+        <v>13.88806844991087</v>
       </c>
       <c r="D18">
-        <v>3.907388072584453</v>
+        <v>4.31299220062364</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.3012756805662</v>
+        <v>19.93931853482619</v>
       </c>
       <c r="G18">
-        <v>3.588282799727558</v>
+        <v>2.036560355967275</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.85487573242782</v>
+        <v>10.94953790657173</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85837598137297</v>
+        <v>36.92291910298752</v>
       </c>
       <c r="N18">
-        <v>16.08984586832333</v>
+        <v>9.884725995450387</v>
       </c>
       <c r="O18">
-        <v>17.72109238469666</v>
+        <v>14.47800584270088</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.32103750279486</v>
+        <v>19.63425975531057</v>
       </c>
       <c r="C19">
-        <v>8.841887977456309</v>
+        <v>13.8378241099455</v>
       </c>
       <c r="D19">
-        <v>3.902484054636637</v>
+        <v>4.300848291178091</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.29101709893548</v>
+        <v>19.87148472382728</v>
       </c>
       <c r="G19">
-        <v>3.588430225506125</v>
+        <v>2.036992299578186</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.85975185029057</v>
+        <v>10.94560732275402</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80403182242192</v>
+        <v>36.72655173575446</v>
       </c>
       <c r="N19">
-        <v>16.09480181543385</v>
+        <v>9.905158336214443</v>
       </c>
       <c r="O19">
-        <v>17.71937013406432</v>
+        <v>14.44182949923508</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.51831400339111</v>
+        <v>19.98400539582189</v>
       </c>
       <c r="C20">
-        <v>8.959025169888786</v>
+        <v>14.06238613268219</v>
       </c>
       <c r="D20">
-        <v>3.924472324230871</v>
+        <v>4.35517560977298</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.3375851694929</v>
+        <v>20.17659261549718</v>
       </c>
       <c r="G20">
-        <v>3.587770843443018</v>
+        <v>2.035052287304567</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.83809864002426</v>
+        <v>10.9645351227302</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04806853531593</v>
+        <v>37.60917216703319</v>
       </c>
       <c r="N20">
-        <v>16.07261619893245</v>
+        <v>9.813134857316106</v>
       </c>
       <c r="O20">
-        <v>17.72746354912363</v>
+        <v>14.60524514909411</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.15558138806182</v>
+        <v>21.11489832322363</v>
       </c>
       <c r="C21">
-        <v>9.340100630236739</v>
+        <v>14.78958036716616</v>
       </c>
       <c r="D21">
-        <v>3.996909192583086</v>
+        <v>4.531951058220632</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.50098915997626</v>
+        <v>21.19876708827689</v>
       </c>
       <c r="G21">
-        <v>3.585626089287357</v>
+        <v>2.028592968097614</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.77043586757052</v>
+        <v>11.05075375246354</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85815262043285</v>
+        <v>40.56580063194505</v>
       </c>
       <c r="N21">
-        <v>16.00011079448101</v>
+        <v>9.501851241314927</v>
       </c>
       <c r="O21">
-        <v>17.76065022056259</v>
+        <v>15.16508337704049</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.5530236399366</v>
+        <v>21.82084235787096</v>
       </c>
       <c r="C22">
-        <v>9.579679587763158</v>
+        <v>15.24409760996777</v>
       </c>
       <c r="D22">
-        <v>4.043136686656112</v>
+        <v>4.643031169971745</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.61281020212141</v>
+        <v>21.86443275994602</v>
       </c>
       <c r="G22">
-        <v>3.584276802585919</v>
+        <v>2.024405288570434</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.73002702485237</v>
+        <v>11.12511770193853</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37936069021312</v>
+        <v>42.50525139108937</v>
       </c>
       <c r="N22">
-        <v>15.95423276690081</v>
+        <v>9.295745784999923</v>
       </c>
       <c r="O22">
-        <v>17.78679167111735</v>
+        <v>15.53904279344705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.3426439138011</v>
+        <v>21.44711735050531</v>
       </c>
       <c r="C23">
-        <v>9.452688686117439</v>
+        <v>15.00343950552657</v>
       </c>
       <c r="D23">
-        <v>4.018568673545129</v>
+        <v>4.584164006171938</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.55267894097267</v>
+        <v>21.50937525962253</v>
       </c>
       <c r="G23">
-        <v>3.584992160197952</v>
+        <v>2.026637948329591</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.75124386281492</v>
+        <v>11.08370393173092</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10198931170088</v>
+        <v>41.46846160888404</v>
       </c>
       <c r="N23">
-        <v>15.97858125161748</v>
+        <v>9.406073138519929</v>
       </c>
       <c r="O23">
-        <v>17.77243326082542</v>
+        <v>15.33870797532815</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.50757663121828</v>
+        <v>19.96496488107188</v>
       </c>
       <c r="C24">
-        <v>8.952639076164932</v>
+        <v>14.0501560455501</v>
       </c>
       <c r="D24">
-        <v>3.923270147577709</v>
+        <v>4.352213473159355</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.33500139802924</v>
+        <v>20.159847784624</v>
       </c>
       <c r="G24">
-        <v>3.587806787035164</v>
+        <v>2.035158579177692</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.83926863638688</v>
+        <v>10.96341345897846</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03470185542003</v>
+        <v>37.56076634364467</v>
       </c>
       <c r="N24">
-        <v>16.0738268488766</v>
+        <v>9.818193809767351</v>
       </c>
       <c r="O24">
-        <v>17.72699651555741</v>
+        <v>14.59623049201277</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.58618447983003</v>
+        <v>18.22510511536399</v>
       </c>
       <c r="C25">
-        <v>8.373731384842529</v>
+        <v>12.93527293843774</v>
       </c>
       <c r="D25">
-        <v>3.815958925561931</v>
+        <v>4.083931212387016</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.12270804555521</v>
+        <v>18.69580440689639</v>
       </c>
       <c r="G25">
-        <v>3.591069530541306</v>
+        <v>2.044555446542766</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.9504583635917</v>
+        <v>10.90363601040976</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85413298547299</v>
+        <v>33.29515189014194</v>
       </c>
       <c r="N25">
-        <v>16.18309602920111</v>
+        <v>10.25781670830376</v>
       </c>
       <c r="O25">
-        <v>17.69718648789772</v>
+        <v>13.83005673165231</v>
       </c>
     </row>
   </sheetData>
